--- a/minigame33/Assets/Editor/ExcelTools/xlsx/Global.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/Global.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3F2C1C44-924F-40BD-A7F6-5A0978C55873}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACAAD971-069F-4E15-A79A-3DC04D699ADD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/minigame33/Assets/Editor/ExcelTools/xlsx/Global.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/Global.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACAAD971-069F-4E15-A79A-3DC04D699ADD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{515CCF8A-F819-4386-820C-E67A9063C35D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,38 @@
   </si>
   <si>
     <t>bgRoteSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始武力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initPopu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initFood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initTech</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,18 +408,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="20.06640625" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +430,20 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -411,8 +456,20 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -424,6 +481,18 @@
       </c>
       <c r="D3">
         <v>10</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/minigame33/Assets/Editor/ExcelTools/xlsx/Global.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/Global.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{515CCF8A-F819-4386-820C-E67A9063C35D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06D22603-D77B-4E6B-AC43-A0F6DD92C177}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>版本号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,126 @@
   </si>
   <si>
     <t>initTech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始信仰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initBeli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集增加食物系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caiji_food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造增加武器系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazao_arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造消耗食物系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazao_food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎增加食物系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulie_food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狩猎减少人口系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulie_popu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisi_beli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭祀减少食物系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭祀增加信仰系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisi_food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日食物消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日人口增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meiri_food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meiri_popu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器变化系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物变化系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口变化系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰变化系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力变化系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_popu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_beli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random_tech</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,19 +528,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="20.06640625" customWidth="1"/>
     <col min="7" max="7" width="10.265625" customWidth="1"/>
+    <col min="10" max="10" width="19.796875" customWidth="1"/>
+    <col min="11" max="11" width="18.53125" customWidth="1"/>
+    <col min="12" max="12" width="21.19921875" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="20.73046875" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
+    <col min="16" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="16.1328125" customWidth="1"/>
+    <col min="19" max="19" width="18.06640625" customWidth="1"/>
+    <col min="20" max="20" width="18.46484375" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" customWidth="1"/>
+    <col min="22" max="22" width="14.265625" customWidth="1"/>
+    <col min="23" max="23" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +575,53 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -468,8 +646,53 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -493,6 +716,51 @@
       </c>
       <c r="H3">
         <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>-0.1</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <v>0.3</v>
+      </c>
+      <c r="N3">
+        <v>-0.2</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>-0.2</v>
+      </c>
+      <c r="Q3">
+        <v>0.1</v>
+      </c>
+      <c r="R3">
+        <v>-0.2</v>
+      </c>
+      <c r="S3">
+        <v>0.1</v>
+      </c>
+      <c r="T3">
+        <v>-0.1</v>
+      </c>
+      <c r="U3">
+        <v>0.1</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/minigame33/Assets/Editor/ExcelTools/xlsx/Global.xlsx
+++ b/minigame33/Assets/Editor/ExcelTools/xlsx/Global.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minigame\MiniGame\minigame33\Assets\Editor\ExcelTools\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B3EB3C39-5C59-420E-A953-1D239B657974}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{66E5D6D3-A84B-4DE8-8616-9E0716C7D00D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -184,6 +184,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -487,26 +488,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="20.06640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" customWidth="1"/>
     <col min="7" max="7" width="10.265625" customWidth="1"/>
-    <col min="10" max="10" width="21.19921875" customWidth="1"/>
+    <col min="10" max="10" width="21.265625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="13" width="20.73046875" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.59765625" customWidth="1"/>
     <col min="15" max="16" width="18" customWidth="1"/>
     <col min="17" max="17" width="16.1328125" customWidth="1"/>
-    <col min="18" max="18" width="18.06640625" customWidth="1"/>
+    <col min="18" max="18" width="18.1328125" customWidth="1"/>
     <col min="19" max="19" width="18.46484375" customWidth="1"/>
     <col min="20" max="20" width="14.265625" customWidth="1"/>
     <col min="21" max="21" width="18.59765625" customWidth="1"/>
     <col min="22" max="22" width="15.59765625" customWidth="1"/>
-    <col min="23" max="23" width="13.796875" customWidth="1"/>
+    <col min="23" max="23" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
@@ -662,10 +663,10 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -677,22 +678,22 @@
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0.4</v>
+      </c>
+      <c r="K3">
         <v>0.2</v>
       </c>
-      <c r="K3">
-        <v>0.3</v>
-      </c>
       <c r="L3">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="P3">
         <v>5</v>
@@ -704,10 +705,10 @@
         <v>0.1</v>
       </c>
       <c r="S3">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="T3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="U3">
         <v>0.1</v>
@@ -716,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
